--- a/templates/PL-B-Lamp_6.xlsx
+++ b/templates/PL-B-Lamp_6.xlsx
@@ -137,17 +137,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray">
-        <fgColor indexed="8"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -227,13 +222,6 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -243,6 +231,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,9 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -634,7 +627,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -657,12 +650,12 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="18">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="12"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -675,80 +668,80 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:8" ht="13.5" thickTop="1">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" ht="13.5" thickBot="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:8">

--- a/templates/PL-B-Lamp_6.xlsx
+++ b/templates/PL-B-Lamp_6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="9690" windowHeight="6495"/>
@@ -9,37 +9,22 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">                   Lampiran : 6.</t>
   </si>
   <si>
-    <t>DAFTAR  REFERENSI</t>
-  </si>
-  <si>
     <t>DATA TEKNIK :</t>
   </si>
   <si>
-    <t xml:space="preserve"> DATA PEMAKAI :</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DATA KONTRAK :</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - JENIS,</t>
   </si>
   <si>
-    <t xml:space="preserve"> - NAMA PEMAKAI,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - NOMOR &amp; TGL. KONTRAK,</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
@@ -52,9 +37,6 @@
     <t xml:space="preserve"> - ALAMAT, No. TELP &amp; No. FACS,</t>
   </si>
   <si>
-    <t xml:space="preserve"> - WAKTU PENYERAHAN,</t>
-  </si>
-  <si>
     <t>KETERANGAN</t>
   </si>
   <si>
@@ -64,20 +46,44 @@
     <t xml:space="preserve"> - CONTACT PERSON</t>
   </si>
   <si>
-    <t xml:space="preserve"> - TAHUN OPERASI.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - ARUS DLL.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DAFTAR  REFERENSI / SPESIFIKASI BARANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DATA PABRIKAN :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - NAMA/MERK PABRIKAN,</t>
+  </si>
+  <si>
+    <t>Jakarta …………… #tahun#</t>
+  </si>
+  <si>
+    <t>PT/CV……………………</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materai Rp. 6.000,- dan </t>
+  </si>
+  <si>
+    <t>Cap Perusahaan</t>
+  </si>
+  <si>
+    <t>Nama Jelas</t>
+  </si>
+  <si>
+    <t>Jabatan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -135,6 +141,15 @@
       <name val="Univers"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -238,6 +253,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +415,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -430,7 +449,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,10 +624,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -617,395 +637,396 @@
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="6" width="33.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15">
+    <row r="1" spans="2:7" ht="15">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:7">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:8">
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="18">
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="18">
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:8" ht="13.5" thickBot="1">
+    </row>
+    <row r="5" spans="2:7" ht="13.5" thickBot="1">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="13.5" thickTop="1">
+    </row>
+    <row r="6" spans="2:7" ht="13.5" thickTop="1">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8">
+        <v>13</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" ht="13.5" thickBot="1">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" ht="13.5" thickBot="1">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:8" ht="13.5" thickBot="1">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" ht="13.5" thickBot="1">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="2:8" ht="13.5" thickTop="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" ht="13.5" thickTop="1"/>
+    <row r="43" spans="2:7">
+      <c r="E43" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="E45" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="E47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="E48" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="19"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.61" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
